--- a/Input/invoice_problem_21_7_2025.xlsx
+++ b/Input/invoice_problem_21_7_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9cac9347e88df44a/Área de Trabalho/Projetos TCS/Desafio_Final_TCS/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{E4C44BAC-8349-467B-B66D-B5888D162C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC9BCBCD-418B-4CE8-823B-163497244AE7}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{29E23C83-6412-4138-94A9-CD77DE383787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA5C051E-4490-400E-A519-5D54184DCA5B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AE55ECA5-CB8B-444A-9974-EF596F6EC8E6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7033E79E-1819-412B-9B26-FC7212882516}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -325,7 +325,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,13 +333,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD3D3D3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -354,8 +367,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,10 +387,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -693,51 +705,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D19E1A75-1D10-456C-B4D6-84217E140CB9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB9D5EB-BBD1-450F-BCC2-143DA2EE42EC}">
   <dimension ref="A1:M71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3587,7 +3599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{767E0A3A-7214-4E4B-B146-FE1D41306BFF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A9451A3-240B-43F3-BC39-56422D1EFFA7}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
